--- a/Data/kontroll-cmyc-qpcr-gr3.xlsx
+++ b/Data/kontroll-cmyc-qpcr-gr3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/248300_stud_inn_no/Documents/Kvantitativ metode og statistikk/Regression-models-and-predicting-from-data/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C938104D-264C-4A5E-AA9A-283E672CEAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C938104D-264C-4A5E-AA9A-283E672CEAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B56EAB-2EA2-4EAF-9422-B88167850925}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{09F2D10A-9F3F-499A-8340-EB1D5989699A}"/>
   </bookViews>
@@ -137,9 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +458,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,19 +499,19 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>27.318147659301758</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>27.232809066772461</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>26.773834228515625</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>27.108263651529949</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -524,19 +525,19 @@
       <c r="C3">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>27.748193740844727</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>28.871988296508789</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>28.310091018676758</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>-0.3010299956639812</v>
       </c>
     </row>
@@ -550,19 +551,19 @@
       <c r="C4">
         <v>0.25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>30.987323760986328</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>30.987323760986328</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>-0.6020599913279624</v>
       </c>
     </row>
@@ -576,19 +577,19 @@
       <c r="C5">
         <v>0.125</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>29.725065231323242</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>30.329904556274414</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>30.027484893798828</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>-0.90308998699194354</v>
       </c>
     </row>
@@ -602,19 +603,19 @@
       <c r="C6">
         <v>6.25E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>31.179471969604492</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>31.570590972900391</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>31.995439529418945</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>31.581834157307942</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>-1.2041199826559248</v>
       </c>
     </row>
@@ -628,19 +629,19 @@
       <c r="C7">
         <v>3.125E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>34.496929168701172</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>34.201858520507813</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>34.349393844604492</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>-1.505149978319906</v>
       </c>
     </row>
@@ -654,13 +655,15 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>28.229305267333984</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>28.229305267333984</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -674,16 +677,17 @@
       <c r="C9">
         <v>0.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>30.143190383911133</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>29.56486701965332</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>29.854028701782227</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>-0.3010299956639812</v>
       </c>
     </row>
@@ -697,19 +701,19 @@
       <c r="C10">
         <v>0.25</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>30.648191452026367</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>30.518293380737305</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>10.855315208435059</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>24.007266680399578</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>-0.6020599913279624</v>
       </c>
     </row>
@@ -723,19 +727,19 @@
       <c r="C11">
         <v>0.125</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>31.503381729125977</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>35.510303497314453</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>24.463748931884766</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>30.492478052775066</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>-0.90308998699194354</v>
       </c>
     </row>
@@ -749,13 +753,15 @@
       <c r="C12">
         <v>6.25E-2</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
         <v>31.533279418945313</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>31.533279418945313</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>-1.2041199826559248</v>
       </c>
     </row>
@@ -769,16 +775,17 @@
       <c r="C13">
         <v>3.125E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>32.506538391113281</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>27.078283309936523</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>29.792410850524902</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>-1.505149978319906</v>
       </c>
     </row>
